--- a/BEMFSimulation/ExcelResults/LineVoltage2500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage2500.xlsx
@@ -408,13 +408,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>-162.5671043059486</v>
+        <v>-164.0974566506871</v>
       </c>
       <c r="C2">
-        <v>337.5343852819162</v>
+        <v>343.951370994593</v>
       </c>
       <c r="D2">
-        <v>-174.9672809759677</v>
+        <v>-179.8539143439059</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B3">
-        <v>-146.4334224525488</v>
+        <v>-150.5359047625572</v>
       </c>
       <c r="C3">
-        <v>327.954832131563</v>
+        <v>338.3909874680877</v>
       </c>
       <c r="D3">
-        <v>-181.5214096790142</v>
+        <v>-187.8550827055306</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0002</v>
       </c>
       <c r="B4">
-        <v>-112.882070746153</v>
+        <v>-119.7584484011197</v>
       </c>
       <c r="C4">
-        <v>308.165952514258</v>
+        <v>320.938810746197</v>
       </c>
       <c r="D4">
-        <v>-195.2838817681051</v>
+        <v>-201.1803623450772</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B5">
-        <v>-68.81422352343118</v>
+        <v>-67.48974364886203</v>
       </c>
       <c r="C5">
-        <v>283.4801828270528</v>
+        <v>284.1787230663342</v>
       </c>
       <c r="D5">
-        <v>-214.6659593036216</v>
+        <v>-216.6889794174722</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B6">
-        <v>-33.16726657628611</v>
+        <v>-31.98569440920791</v>
       </c>
       <c r="C6">
-        <v>266.8742680047165</v>
+        <v>275.1852273985255</v>
       </c>
       <c r="D6">
-        <v>-233.7070014284304</v>
+        <v>-243.1995329893176</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B7">
-        <v>-14.790175824001</v>
+        <v>-16.13410378757604</v>
       </c>
       <c r="C7">
-        <v>258.4054918564088</v>
+        <v>267.2331692722477</v>
       </c>
       <c r="D7">
-        <v>-243.6153160324078</v>
+        <v>-251.0990654846716</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B8">
-        <v>-4.031187898162756</v>
+        <v>-6.034581011148816</v>
       </c>
       <c r="C8">
-        <v>259.490683962636</v>
+        <v>263.4168936473641</v>
       </c>
       <c r="D8">
-        <v>-255.4594960644732</v>
+        <v>-257.3823126362153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B9">
-        <v>3.830604132920712</v>
+        <v>4.632333865091027</v>
       </c>
       <c r="C9">
-        <v>256.3378120511264</v>
+        <v>258.5841802063266</v>
       </c>
       <c r="D9">
-        <v>-260.1684161840471</v>
+        <v>-263.2165140714176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B10">
-        <v>14.59324528227724</v>
+        <v>16.37908729841784</v>
       </c>
       <c r="C10">
-        <v>244.2819666835671</v>
+        <v>249.2012750964132</v>
       </c>
       <c r="D10">
-        <v>-258.8752119658444</v>
+        <v>-265.580362394831</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B11">
-        <v>32.73242834062425</v>
+        <v>32.88244918686276</v>
       </c>
       <c r="C11">
-        <v>234.557429848701</v>
+        <v>246.2859738928983</v>
       </c>
       <c r="D11">
-        <v>-267.2898581893252</v>
+        <v>-279.1684230797611</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B12">
-        <v>68.52078957398727</v>
+        <v>70.49085304182344</v>
       </c>
       <c r="C12">
-        <v>215.3843613711718</v>
+        <v>217.6158185487232</v>
       </c>
       <c r="D12">
-        <v>-283.9051509451591</v>
+        <v>-288.1066715905466</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B13">
-        <v>112.1741217713211</v>
+        <v>116.8207475441677</v>
       </c>
       <c r="C13">
-        <v>195.8857914845123</v>
+        <v>198.5860799516095</v>
       </c>
       <c r="D13">
-        <v>-308.0599132558334</v>
+        <v>-315.4068274957772</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B14">
-        <v>146.0741934567643</v>
+        <v>152.3021762359031</v>
       </c>
       <c r="C14">
-        <v>181.5132267701185</v>
+        <v>187.741729720904</v>
       </c>
       <c r="D14">
-        <v>-327.5874202268828</v>
+        <v>-340.0439059568071</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B15">
-        <v>162.1051618433179</v>
+        <v>162.960576452807</v>
       </c>
       <c r="C15">
-        <v>174.437318141459</v>
+        <v>178.8036445281121</v>
       </c>
       <c r="D15">
-        <v>-336.5424799847768</v>
+        <v>-341.7642209809191</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001</v>
       </c>
       <c r="B16">
-        <v>172.6576249820977</v>
+        <v>174.7971948240549</v>
       </c>
       <c r="C16">
-        <v>172.3818580349971</v>
+        <v>175.490759677811</v>
       </c>
       <c r="D16">
-        <v>-345.0394830170948</v>
+        <v>-350.2879545018659</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B17">
-        <v>174.5581577593004</v>
+        <v>178.7963829640528</v>
       </c>
       <c r="C17">
-        <v>162.6169488930959</v>
+        <v>164.2348697120561</v>
       </c>
       <c r="D17">
-        <v>-337.1751066523963</v>
+        <v>-343.0312526761089</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B18">
-        <v>181.015924135974</v>
+        <v>187.8595184859102</v>
       </c>
       <c r="C18">
-        <v>146.5260337243289</v>
+        <v>151.172332299469</v>
       </c>
       <c r="D18">
-        <v>-327.5419578603029</v>
+        <v>-339.0318507853792</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0012</v>
       </c>
       <c r="B19">
-        <v>195.5794935126509</v>
+        <v>201.990768461073</v>
       </c>
       <c r="C19">
-        <v>113.2847829721636</v>
+        <v>119.8506057055289</v>
       </c>
       <c r="D19">
-        <v>-308.8642764848145</v>
+        <v>-321.8413741666019</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B20">
-        <v>215.2773895697945</v>
+        <v>217.4021195348689</v>
       </c>
       <c r="C20">
-        <v>68.87804178798766</v>
+        <v>68.1987101685589</v>
       </c>
       <c r="D20">
-        <v>-284.1554313577822</v>
+        <v>-285.6008297034277</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B21">
-        <v>234.2735739295513</v>
+        <v>244.0696358700322</v>
       </c>
       <c r="C21">
-        <v>33.05984707294333</v>
+        <v>32.59805477418936</v>
       </c>
       <c r="D21">
-        <v>-267.3334210024946</v>
+        <v>-276.6676906442216</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0014</v>
       </c>
       <c r="B22">
-        <v>243.9273465478044</v>
+        <v>251.1342126741165</v>
       </c>
       <c r="C22">
-        <v>14.96340952601635</v>
+        <v>16.4525552662279</v>
       </c>
       <c r="D22">
-        <v>-258.8907560738208</v>
+        <v>-267.5867679403444</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B23">
-        <v>255.5251939623405</v>
+        <v>257.8821158445072</v>
       </c>
       <c r="C23">
-        <v>4.153096007889758</v>
+        <v>5.49755510000881</v>
       </c>
       <c r="D23">
-        <v>-259.6782899702303</v>
+        <v>-263.3796709445161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B24">
-        <v>259.9982827078527</v>
+        <v>264.4535498720919</v>
       </c>
       <c r="C24">
-        <v>-3.901155015228198</v>
+        <v>-5.30705346909015</v>
       </c>
       <c r="D24">
-        <v>-256.0971276926244</v>
+        <v>-259.1464964030017</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B25">
-        <v>259.2213137964167</v>
+        <v>266.2070851598411</v>
       </c>
       <c r="C25">
-        <v>-14.79908329023519</v>
+        <v>-16.31387422550179</v>
       </c>
       <c r="D25">
-        <v>-244.4222305061814</v>
+        <v>-249.8932109343393</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B26">
-        <v>267.8268286572135</v>
+        <v>278.447828971817</v>
       </c>
       <c r="C26">
-        <v>-32.78970028279718</v>
+        <v>-32.10370607771191</v>
       </c>
       <c r="D26">
-        <v>-235.0371283744163</v>
+        <v>-246.3441228941051</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B27">
-        <v>284.5328787906561</v>
+        <v>286.8889685789361</v>
       </c>
       <c r="C27">
-        <v>-68.49880609218442</v>
+        <v>-69.37758744755412</v>
       </c>
       <c r="D27">
-        <v>-216.0340726984717</v>
+        <v>-217.511381131382</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B28">
-        <v>309.1412147029407</v>
+        <v>315.8913407651286</v>
       </c>
       <c r="C28">
-        <v>-112.5306065117909</v>
+        <v>-117.0238469903811</v>
       </c>
       <c r="D28">
-        <v>-196.6106081911498</v>
+        <v>-198.8674937747475</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B29">
-        <v>328.1897824276717</v>
+        <v>341.4175698248034</v>
       </c>
       <c r="C29">
-        <v>-146.4466566431882</v>
+        <v>-152.9262075036709</v>
       </c>
       <c r="D29">
-        <v>-181.7431257844836</v>
+        <v>-188.4913623211325</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B30">
-        <v>336.5404715791561</v>
+        <v>342.93796320457</v>
       </c>
       <c r="C30">
-        <v>-162.2991387925829</v>
+        <v>-163.4436826985941</v>
       </c>
       <c r="D30">
-        <v>-174.2413327865732</v>
+        <v>-179.4942805059759</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002</v>
       </c>
       <c r="B31">
-        <v>344.7688763968222</v>
+        <v>349.552010975906</v>
       </c>
       <c r="C31">
-        <v>-172.5984720179208</v>
+        <v>-174.7376083408589</v>
       </c>
       <c r="D31">
-        <v>-172.1704043789014</v>
+        <v>-174.8144026350471</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B32">
-        <v>336.9185514829455</v>
+        <v>340.9055263704461</v>
       </c>
       <c r="C32">
-        <v>-174.5635767559903</v>
+        <v>-178.303843306093</v>
       </c>
       <c r="D32">
-        <v>-162.3549747269552</v>
+        <v>-162.601683064353</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002133333333333334</v>
       </c>
       <c r="B33">
-        <v>327.3558124605952</v>
+        <v>338.0703662892911</v>
       </c>
       <c r="C33">
-        <v>-181.1145108191637</v>
+        <v>-187.5055177042763</v>
       </c>
       <c r="D33">
-        <v>-146.2413016414315</v>
+        <v>-150.5648485850148</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002200000000000001</v>
       </c>
       <c r="B34">
-        <v>308.6101256953485</v>
+        <v>322.0946511019525</v>
       </c>
       <c r="C34">
-        <v>-195.4820978426089</v>
+        <v>-201.6949016935414</v>
       </c>
       <c r="D34">
-        <v>-113.1280278527396</v>
+        <v>-120.3997494084112</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002266666666666667</v>
       </c>
       <c r="B35">
-        <v>283.972903921132</v>
+        <v>284.9488196816272</v>
       </c>
       <c r="C35">
-        <v>-215.0737187178808</v>
+        <v>-216.6094765643275</v>
       </c>
       <c r="D35">
-        <v>-68.89918520325125</v>
+        <v>-68.33934311729973</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B36">
-        <v>267.2653024278752</v>
+        <v>275.4103828502855</v>
       </c>
       <c r="C36">
-        <v>-234.0666533561127</v>
+        <v>-243.3090018141894</v>
       </c>
       <c r="D36">
-        <v>-33.19864907176257</v>
+        <v>-32.10138103609609</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002400000000000001</v>
       </c>
       <c r="B37">
-        <v>258.9917514740559</v>
+        <v>267.2432549275905</v>
       </c>
       <c r="C37">
-        <v>-244.0879789506537</v>
+        <v>-251.3638878313601</v>
       </c>
       <c r="D37">
-        <v>-14.90377252340218</v>
+        <v>-15.8793670962304</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002466666666666667</v>
       </c>
       <c r="B38">
-        <v>259.7509141819995</v>
+        <v>263.373042162961</v>
       </c>
       <c r="C38">
-        <v>-255.6979870752364</v>
+        <v>-257.6762219259631</v>
       </c>
       <c r="D38">
-        <v>-4.052927106763107</v>
+        <v>-5.696820236997937</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002533333333333334</v>
       </c>
       <c r="B39">
-        <v>256.4315356530267</v>
+        <v>259.1922418063178</v>
       </c>
       <c r="C39">
-        <v>-260.4397531907799</v>
+        <v>-263.9915922753491</v>
       </c>
       <c r="D39">
-        <v>4.008217537753154</v>
+        <v>4.799350469031339</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002600000000000001</v>
       </c>
       <c r="B40">
-        <v>244.1057613246858</v>
+        <v>249.7115081416819</v>
       </c>
       <c r="C40">
-        <v>-258.856700377533</v>
+        <v>-265.8909116707187</v>
       </c>
       <c r="D40">
-        <v>14.75093905284719</v>
+        <v>16.17940352903678</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B41">
-        <v>234.6648899422155</v>
+        <v>247.1165581832233</v>
       </c>
       <c r="C41">
-        <v>-267.4045959098716</v>
+        <v>-279.6392367413956</v>
       </c>
       <c r="D41">
-        <v>32.73970596765611</v>
+        <v>32.52267855817225</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.002733333333333334</v>
       </c>
       <c r="B42">
-        <v>215.6996674533595</v>
+        <v>217.6489010896792</v>
       </c>
       <c r="C42">
-        <v>-284.1402300716607</v>
+        <v>-287.933514949939</v>
       </c>
       <c r="D42">
-        <v>68.44056261830121</v>
+        <v>70.28461386025982</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002800000000000001</v>
       </c>
       <c r="B43">
-        <v>196.1378958750079</v>
+        <v>198.9280168540499</v>
       </c>
       <c r="C43">
-        <v>-308.5347208836864</v>
+        <v>-316.3771600291439</v>
       </c>
       <c r="D43">
-        <v>112.3968250086785</v>
+        <v>117.449143175094</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002866666666666668</v>
       </c>
       <c r="B44">
-        <v>181.6828480980541</v>
+        <v>188.3925019953298</v>
       </c>
       <c r="C44">
-        <v>-328.1554226728786</v>
+        <v>-341.2334765180148</v>
       </c>
       <c r="D44">
-        <v>146.4725745748244</v>
+        <v>152.8409745226851</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002933333333333334</v>
       </c>
       <c r="B45">
-        <v>174.6251643554585</v>
+        <v>178.6597137798862</v>
       </c>
       <c r="C45">
-        <v>-337.2191185645072</v>
+        <v>-341.1411859824201</v>
       </c>
       <c r="D45">
-        <v>162.5939542090486</v>
+        <v>162.4814722025339</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B46">
-        <v>172.6766643684129</v>
+        <v>176.0016278944551</v>
       </c>
       <c r="C46">
-        <v>-345.7742557914997</v>
+        <v>-351.7108420995379</v>
       </c>
       <c r="D46">
-        <v>173.0975914230868</v>
+        <v>175.7092142050828</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003066666666666668</v>
       </c>
       <c r="B47">
-        <v>162.5451155450756</v>
+        <v>164.0794585073078</v>
       </c>
       <c r="C47">
-        <v>-337.5143856684653</v>
+        <v>-343.9404018153061</v>
       </c>
       <c r="D47">
-        <v>174.9692701233896</v>
+        <v>179.8609433079983</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003133333333333334</v>
       </c>
       <c r="B48">
-        <v>146.4051198415974</v>
+        <v>150.5159937971142</v>
       </c>
       <c r="C48">
-        <v>-327.9432786650691</v>
+        <v>-338.3907145922982</v>
       </c>
       <c r="D48">
-        <v>181.5381588234717</v>
+        <v>187.874720795184</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003200000000000001</v>
       </c>
       <c r="B49">
-        <v>112.8170567828278</v>
+        <v>119.6807982431578</v>
       </c>
       <c r="C49">
-        <v>-308.1260205470529</v>
+        <v>-320.8774850595645</v>
       </c>
       <c r="D49">
-        <v>195.3089637642251</v>
+        <v>201.1966868164067</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.003266666666666668</v>
       </c>
       <c r="B50">
-        <v>68.75525629344688</v>
+        <v>67.42773233967721</v>
       </c>
       <c r="C50">
-        <v>-283.4494064572538</v>
+        <v>-284.151212165649</v>
       </c>
       <c r="D50">
-        <v>214.6941501638069</v>
+        <v>216.7234798259718</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B51">
-        <v>33.12792883254825</v>
+        <v>31.94740298834361</v>
       </c>
       <c r="C51">
-        <v>-266.8579079837915</v>
+        <v>-275.1776025527589</v>
       </c>
       <c r="D51">
-        <v>233.7299791512432</v>
+        <v>243.2301995644153</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.003400000000000001</v>
       </c>
       <c r="B52">
-        <v>14.77192470674724</v>
+        <v>16.12111387687825</v>
       </c>
       <c r="C52">
-        <v>-258.3989022534251</v>
+        <v>-267.2184742568002</v>
       </c>
       <c r="D52">
-        <v>243.6269775466779</v>
+        <v>251.097360379922</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.003466666666666668</v>
       </c>
       <c r="B53">
-        <v>4.018707388197683</v>
+        <v>6.020358269956745</v>
       </c>
       <c r="C53">
-        <v>-259.4956258482281</v>
+        <v>-263.4208723530307</v>
       </c>
       <c r="D53">
-        <v>255.4769184600304</v>
+        <v>257.400514083074</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.003533333333333335</v>
       </c>
       <c r="B54">
-        <v>-3.842848212797364</v>
+        <v>-4.648608114889839</v>
       </c>
       <c r="C54">
-        <v>-256.3227796719203</v>
+        <v>-258.5676299441319</v>
       </c>
       <c r="D54">
-        <v>260.1656278847177</v>
+        <v>263.2162380590217</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003600000000000001</v>
       </c>
       <c r="B55">
-        <v>-14.61175674845467</v>
+        <v>-16.39934306920874</v>
       </c>
       <c r="C55">
-        <v>-244.2692308687839</v>
+        <v>-249.1904350879609</v>
       </c>
       <c r="D55">
-        <v>258.8809876172385</v>
+        <v>265.5897781571696</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B56">
-        <v>-32.77107328555836</v>
+        <v>-32.91828937695732</v>
       </c>
       <c r="C56">
-        <v>-234.5337773120295</v>
+        <v>-246.269547388787</v>
       </c>
       <c r="D56">
-        <v>267.3048505975879</v>
+        <v>279.1878367657443</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003733333333333335</v>
       </c>
       <c r="B57">
-        <v>-68.57993419320258</v>
+        <v>-70.55178058132071</v>
       </c>
       <c r="C57">
-        <v>-215.3568187246605</v>
+        <v>-217.5724072232636</v>
       </c>
       <c r="D57">
-        <v>283.936752917863</v>
+        <v>288.1241878045843</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.003800000000000001</v>
       </c>
       <c r="B58">
-        <v>-112.2384109048711</v>
+        <v>-116.8896514124242</v>
       </c>
       <c r="C58">
-        <v>-195.8590130894419</v>
+        <v>-198.568436740963</v>
       </c>
       <c r="D58">
-        <v>308.097423994313</v>
+        <v>315.4580881533873</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003866666666666668</v>
       </c>
       <c r="B59">
-        <v>-146.1048174518434</v>
+        <v>-152.3289843241369</v>
       </c>
       <c r="C59">
-        <v>-181.4984138384838</v>
+        <v>-187.7268949182468</v>
       </c>
       <c r="D59">
-        <v>327.6032312903272</v>
+        <v>340.0558792423838</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003933333333333335</v>
       </c>
       <c r="B60">
-        <v>-162.1249156839484</v>
+        <v>-162.9774076427011</v>
       </c>
       <c r="C60">
-        <v>-174.4317436555211</v>
+        <v>-178.7954899806519</v>
       </c>
       <c r="D60">
-        <v>336.5566593394695</v>
+        <v>341.7728976233529</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B61">
-        <v>-172.664912737497</v>
+        <v>-174.8081315591317</v>
       </c>
       <c r="C61">
-        <v>-172.3761609176228</v>
+        <v>-175.4812899336792</v>
       </c>
       <c r="D61">
-        <v>345.0410736551199</v>
+        <v>350.2894214928109</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.004066666666666667</v>
       </c>
       <c r="B62">
-        <v>-174.5619244143882</v>
+        <v>-178.8026316756452</v>
       </c>
       <c r="C62">
-        <v>-162.5968738674091</v>
+        <v>-164.2169692645969</v>
       </c>
       <c r="D62">
-        <v>337.1587982817974</v>
+        <v>343.0196009402422</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.004133333333333333</v>
       </c>
       <c r="B63">
-        <v>-181.0312869076342</v>
+        <v>-187.8819678569043</v>
       </c>
       <c r="C63">
-        <v>-146.4964914858099</v>
+        <v>-151.153290049027</v>
       </c>
       <c r="D63">
-        <v>327.527778393444</v>
+        <v>339.0352579059314</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0042</v>
       </c>
       <c r="B64">
-        <v>-195.6066302937184</v>
+        <v>-202.007255590475</v>
       </c>
       <c r="C64">
-        <v>-113.2204724452417</v>
+        <v>-119.7722305566782</v>
       </c>
       <c r="D64">
-        <v>308.82710273896</v>
+        <v>321.7794861471532</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.004266666666666666</v>
       </c>
       <c r="B65">
-        <v>-215.3057121645732</v>
+        <v>-217.4364638794435</v>
       </c>
       <c r="C65">
-        <v>-68.81799725216402</v>
+        <v>-68.13686427912663</v>
       </c>
       <c r="D65">
-        <v>284.1237094167371</v>
+        <v>285.5733281585701</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B66">
-        <v>-234.2951819296381</v>
+        <v>-244.1011023713076</v>
       </c>
       <c r="C66">
-        <v>-33.02088991339048</v>
+        <v>-32.56041062080703</v>
       </c>
       <c r="D66">
-        <v>267.3160718430286</v>
+        <v>276.6615129921146</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.004399999999999999</v>
       </c>
       <c r="B67">
-        <v>-243.9401725164067</v>
+        <v>-251.1329942442568</v>
       </c>
       <c r="C67">
-        <v>-14.9452841347851</v>
+        <v>-16.43807266571706</v>
       </c>
       <c r="D67">
-        <v>258.8854566511918</v>
+        <v>267.5710669099739</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.004466666666666665</v>
       </c>
       <c r="B68">
-        <v>-255.5415059242216</v>
+        <v>-257.8993542383957</v>
       </c>
       <c r="C68">
-        <v>-4.140337579027204</v>
+        <v>-5.482829199623254</v>
       </c>
       <c r="D68">
-        <v>259.6818435032488</v>
+        <v>263.382183438019</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.004533333333333331</v>
       </c>
       <c r="B69">
-        <v>-259.9958420961148</v>
+        <v>-264.4532913030174</v>
       </c>
       <c r="C69">
-        <v>3.913625086736502</v>
+        <v>5.323060034043152</v>
       </c>
       <c r="D69">
-        <v>256.0822170093783</v>
+        <v>259.1302312689742</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.004599999999999997</v>
       </c>
       <c r="B70">
-        <v>-259.2270632174044</v>
+        <v>-266.2151673435365</v>
       </c>
       <c r="C70">
-        <v>14.81779911716136</v>
+        <v>16.33267053675196</v>
       </c>
       <c r="D70">
-        <v>244.4092641002431</v>
+        <v>249.8824968067846</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.004666666666666664</v>
       </c>
       <c r="B71">
-        <v>-267.842339144026</v>
+        <v>-278.4669966620424</v>
       </c>
       <c r="C71">
-        <v>32.8279955836197</v>
+        <v>32.13875276628296</v>
       </c>
       <c r="D71">
-        <v>235.0143435604063</v>
+        <v>246.3282438957595</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.00473333333333333</v>
       </c>
       <c r="B72">
-        <v>-284.5648652606891</v>
+        <v>-286.9048853887189</v>
       </c>
       <c r="C72">
-        <v>68.55833527172186</v>
+        <v>69.43883490326334</v>
       </c>
       <c r="D72">
-        <v>216.0065299889673</v>
+        <v>217.4660504854555</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004799999999999996</v>
       </c>
       <c r="B73">
-        <v>-309.17989234177</v>
+        <v>-315.9459136379296</v>
       </c>
       <c r="C73">
-        <v>112.5952987559413</v>
+        <v>117.0947091330449</v>
       </c>
       <c r="D73">
-        <v>196.5845935858287</v>
+        <v>198.8512045048847</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.004866666666666662</v>
       </c>
       <c r="B74">
-        <v>-328.2010423530984</v>
+        <v>-341.42968549954</v>
       </c>
       <c r="C74">
-        <v>146.4758745514695</v>
+        <v>152.9529275961616</v>
       </c>
       <c r="D74">
-        <v>181.7251678016289</v>
+        <v>188.4767579033783</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004933333333333329</v>
       </c>
       <c r="B75">
-        <v>-336.558241555517</v>
+        <v>-342.9443294546891</v>
       </c>
       <c r="C75">
-        <v>162.320499606246</v>
+        <v>163.4595652599382</v>
       </c>
       <c r="D75">
-        <v>174.2377419492711</v>
+        <v>179.4847641947509</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.004999999999999995</v>
       </c>
       <c r="B76">
-        <v>-344.7694918554946</v>
+        <v>-349.552649646335</v>
       </c>
       <c r="C76">
-        <v>172.6053695782185</v>
+        <v>174.7486472584841</v>
       </c>
       <c r="D76">
-        <v>172.1641222772761</v>
+        <v>174.804002387851</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.005066666666666661</v>
       </c>
       <c r="B77">
-        <v>-336.8991290908018</v>
+        <v>-340.892919222964</v>
       </c>
       <c r="C77">
-        <v>174.5655738193696</v>
+        <v>178.3098633866302</v>
       </c>
       <c r="D77">
-        <v>162.3335552714322</v>
+        <v>162.5830558363338</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.005133333333333327</v>
       </c>
       <c r="B78">
-        <v>-327.3449584225561</v>
+        <v>-338.0733888889898</v>
       </c>
       <c r="C78">
-        <v>181.1317018358548</v>
+        <v>187.5260069694717</v>
       </c>
       <c r="D78">
-        <v>146.2132565867013</v>
+        <v>150.5473819195181</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.005199999999999994</v>
       </c>
       <c r="B79">
-        <v>-308.5718434976837</v>
+        <v>-322.036505773607</v>
       </c>
       <c r="C79">
-        <v>195.5085316580215</v>
+        <v>201.7130433459019</v>
       </c>
       <c r="D79">
-        <v>113.0633118396622</v>
+        <v>120.3234624277051</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00526666666666666</v>
       </c>
       <c r="B80">
-        <v>-283.9418397258802</v>
+        <v>-284.9186552472221</v>
       </c>
       <c r="C80">
-        <v>215.101877148152</v>
+        <v>216.6431117612319</v>
       </c>
       <c r="D80">
-        <v>68.83996257772827</v>
+        <v>68.27554348599016</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.005333333333333326</v>
       </c>
       <c r="B81">
-        <v>-267.2467672740671</v>
+        <v>-275.4054497315707</v>
       </c>
       <c r="C81">
-        <v>234.0876980555973</v>
+        <v>243.3424066343506</v>
       </c>
       <c r="D81">
-        <v>33.15906921846981</v>
+        <v>32.06304309722013</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.005399999999999992</v>
       </c>
       <c r="B82">
-        <v>-258.9862420422559</v>
+        <v>-267.2265367941993</v>
       </c>
       <c r="C82">
-        <v>244.1004422736539</v>
+        <v>251.3611349456747</v>
       </c>
       <c r="D82">
-        <v>14.88579976860193</v>
+        <v>15.86540184852457</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.005466666666666659</v>
       </c>
       <c r="B83">
-        <v>-259.7535917684403</v>
+        <v>-263.3772486578158</v>
       </c>
       <c r="C83">
-        <v>255.7133908889884</v>
+        <v>257.6940444583056</v>
       </c>
       <c r="D83">
-        <v>4.040200879451973</v>
+        <v>5.683204199510158</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.005533333333333325</v>
       </c>
       <c r="B84">
-        <v>-256.4165574645481</v>
+        <v>-259.1753675806934</v>
       </c>
       <c r="C84">
-        <v>260.4372012905363</v>
+        <v>263.9906054327874</v>
       </c>
       <c r="D84">
-        <v>-4.020643825988216</v>
+        <v>-4.815237852093958</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.005599999999999991</v>
       </c>
       <c r="B85">
-        <v>-244.0939455049714</v>
+        <v>-249.7015531200514</v>
       </c>
       <c r="C85">
-        <v>258.8633050642829</v>
+        <v>265.9006965766595</v>
       </c>
       <c r="D85">
-        <v>-14.76935955931152</v>
+        <v>-16.19914345660811</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.005666666666666658</v>
       </c>
       <c r="B86">
-        <v>-234.6431831520985</v>
+        <v>-247.1003222573451</v>
       </c>
       <c r="C86">
-        <v>267.4218023459471</v>
+        <v>279.6585332845193</v>
       </c>
       <c r="D86">
-        <v>-32.77861919384867</v>
+        <v>-32.55821102717411</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.005733333333333324</v>
       </c>
       <c r="B87">
-        <v>-215.6708486350904</v>
+        <v>-217.6048371689451</v>
       </c>
       <c r="C87">
-        <v>284.1706798714451</v>
+        <v>287.9518423019049</v>
       </c>
       <c r="D87">
-        <v>-68.49983123635481</v>
+        <v>-70.34700513295978</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.00579999999999999</v>
       </c>
       <c r="B88">
-        <v>-196.1123090982362</v>
+        <v>-198.9108435041983</v>
       </c>
       <c r="C88">
-        <v>308.5735746987136</v>
+        <v>316.4296481100845</v>
       </c>
       <c r="D88">
-        <v>-112.4612656004774</v>
+        <v>-117.5188046058862</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.005866666666666656</v>
       </c>
       <c r="B89">
-        <v>-181.6662727236924</v>
+        <v>-188.3766099446511</v>
       </c>
       <c r="C89">
-        <v>328.168877763747</v>
+        <v>341.24261205214</v>
       </c>
       <c r="D89">
-        <v>-146.5026050400546</v>
+        <v>-152.866002107489</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.005933333333333323</v>
       </c>
       <c r="B90">
-        <v>-174.6209318570526</v>
+        <v>-178.6519999675022</v>
       </c>
       <c r="C90">
-        <v>337.23554188434</v>
+        <v>341.1508889181758</v>
       </c>
       <c r="D90">
-        <v>-162.6146100272874</v>
+        <v>-162.4988889506736</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage2500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage2500.xlsx
@@ -408,13 +408,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>-164.0974566506871</v>
+        <v>-166.4851830977612</v>
       </c>
       <c r="C2">
-        <v>343.951370994593</v>
+        <v>345.8648770686281</v>
       </c>
       <c r="D2">
-        <v>-179.8539143439059</v>
+        <v>-179.3796939708669</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B3">
-        <v>-150.5359047625572</v>
+        <v>-150.2059431748384</v>
       </c>
       <c r="C3">
-        <v>338.3909874680877</v>
+        <v>336.5307339313022</v>
       </c>
       <c r="D3">
-        <v>-187.8550827055306</v>
+        <v>-186.3247907564638</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0002</v>
       </c>
       <c r="B4">
-        <v>-119.7584484011197</v>
+        <v>-115.8586273886219</v>
       </c>
       <c r="C4">
-        <v>320.938810746197</v>
+        <v>316.3971671189651</v>
       </c>
       <c r="D4">
-        <v>-201.1803623450772</v>
+        <v>-200.5385397303432</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B5">
-        <v>-67.48974364886203</v>
+        <v>-70.44852633799269</v>
       </c>
       <c r="C5">
-        <v>284.1787230663342</v>
+        <v>290.3903169666909</v>
       </c>
       <c r="D5">
-        <v>-216.6889794174722</v>
+        <v>-219.9417906286982</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B6">
-        <v>-31.98569440920791</v>
+        <v>-33.96866725953808</v>
       </c>
       <c r="C6">
-        <v>275.1852273985255</v>
+        <v>273.7251607230187</v>
       </c>
       <c r="D6">
-        <v>-243.1995329893176</v>
+        <v>-239.7564934634806</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B7">
-        <v>-16.13410378757604</v>
+        <v>-15.18913684745611</v>
       </c>
       <c r="C7">
-        <v>267.2331692722477</v>
+        <v>264.5856111633398</v>
       </c>
       <c r="D7">
-        <v>-251.0990654846716</v>
+        <v>-249.3964743158837</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B8">
-        <v>-6.034581011148816</v>
+        <v>-4.206441179224754</v>
       </c>
       <c r="C8">
-        <v>263.4168936473641</v>
+        <v>266.8428846346642</v>
       </c>
       <c r="D8">
-        <v>-257.3823126362153</v>
+        <v>-262.6364434554395</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B9">
-        <v>4.632333865091027</v>
+        <v>3.969620998394575</v>
       </c>
       <c r="C9">
-        <v>258.5841802063266</v>
+        <v>262.9378491310192</v>
       </c>
       <c r="D9">
-        <v>-263.2165140714176</v>
+        <v>-266.9074701294138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B10">
-        <v>16.37908729841784</v>
+        <v>15.12315429284435</v>
       </c>
       <c r="C10">
-        <v>249.2012750964132</v>
+        <v>250.3542717706315</v>
       </c>
       <c r="D10">
-        <v>-265.580362394831</v>
+        <v>-265.4774260634759</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B11">
-        <v>32.88244918686276</v>
+        <v>33.63096414673201</v>
       </c>
       <c r="C11">
-        <v>246.2859738928983</v>
+        <v>240.8275985978023</v>
       </c>
       <c r="D11">
-        <v>-279.1684230797611</v>
+        <v>-274.4585627445342</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B12">
-        <v>70.49085304182344</v>
+        <v>70.38155334126368</v>
       </c>
       <c r="C12">
-        <v>217.6158185487232</v>
+        <v>220.6841369566417</v>
       </c>
       <c r="D12">
-        <v>-288.1066715905466</v>
+        <v>-291.0656902979055</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B13">
-        <v>116.8207475441677</v>
+        <v>114.9755548481173</v>
       </c>
       <c r="C13">
-        <v>198.5860799516095</v>
+        <v>200.8528115330906</v>
       </c>
       <c r="D13">
-        <v>-315.4068274957772</v>
+        <v>-315.8283663812078</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B14">
-        <v>152.3021762359031</v>
+        <v>149.7893507377638</v>
       </c>
       <c r="C14">
-        <v>187.741729720904</v>
+        <v>186.0990816050399</v>
       </c>
       <c r="D14">
-        <v>-340.0439059568071</v>
+        <v>-335.8884323428038</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B15">
-        <v>162.960576452807</v>
+        <v>166.1916565059089</v>
       </c>
       <c r="C15">
-        <v>178.8036445281121</v>
+        <v>178.7544344493911</v>
       </c>
       <c r="D15">
-        <v>-341.7642209809191</v>
+        <v>-344.9460909553</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001</v>
       </c>
       <c r="B16">
-        <v>174.7971948240549</v>
+        <v>177.3669479876023</v>
       </c>
       <c r="C16">
-        <v>175.490759677811</v>
+        <v>177.1637527543807</v>
       </c>
       <c r="D16">
-        <v>-350.2879545018659</v>
+        <v>-354.530700741983</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B17">
-        <v>178.7963829640528</v>
+        <v>178.8412029922068</v>
       </c>
       <c r="C17">
-        <v>164.2348697120561</v>
+        <v>166.4176509327812</v>
       </c>
       <c r="D17">
-        <v>-343.0312526761089</v>
+        <v>-345.258853924988</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B18">
-        <v>187.8595184859102</v>
+        <v>185.8063021377396</v>
       </c>
       <c r="C18">
-        <v>151.172332299469</v>
+        <v>150.30936975081</v>
       </c>
       <c r="D18">
-        <v>-339.0318507853792</v>
+        <v>-336.1156718885497</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0012</v>
       </c>
       <c r="B19">
-        <v>201.990768461073</v>
+        <v>200.8557193875104</v>
       </c>
       <c r="C19">
-        <v>119.8506057055289</v>
+        <v>116.3163982063137</v>
       </c>
       <c r="D19">
-        <v>-321.8413741666019</v>
+        <v>-317.1721175938242</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B20">
-        <v>217.4021195348689</v>
+        <v>220.6624223115342</v>
       </c>
       <c r="C20">
-        <v>68.1987101685589</v>
+        <v>70.51129716535223</v>
       </c>
       <c r="D20">
-        <v>-285.6008297034277</v>
+        <v>-291.1737194768864</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B21">
-        <v>244.0696358700322</v>
+        <v>240.2870876188735</v>
       </c>
       <c r="C21">
-        <v>32.59805477418936</v>
+        <v>33.8850672955457</v>
       </c>
       <c r="D21">
-        <v>-276.6676906442216</v>
+        <v>-274.1721549144192</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0014</v>
       </c>
       <c r="B22">
-        <v>251.1342126741165</v>
+        <v>249.6895850929715</v>
       </c>
       <c r="C22">
-        <v>16.4525552662279</v>
+        <v>15.35883752324941</v>
       </c>
       <c r="D22">
-        <v>-267.5867679403444</v>
+        <v>-265.0484226162209</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B23">
-        <v>257.8821158445072</v>
+        <v>262.7144562549825</v>
       </c>
       <c r="C23">
-        <v>5.49755510000881</v>
+        <v>4.249150730517911</v>
       </c>
       <c r="D23">
-        <v>-263.3796709445161</v>
+        <v>-266.9636069855004</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B24">
-        <v>264.4535498720919</v>
+        <v>266.7327198707573</v>
       </c>
       <c r="C24">
-        <v>-5.30705346909015</v>
+        <v>-4.11751289633618</v>
       </c>
       <c r="D24">
-        <v>-259.1464964030017</v>
+        <v>-262.6152069744211</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B25">
-        <v>266.2070851598411</v>
+        <v>265.8076002864217</v>
       </c>
       <c r="C25">
-        <v>-16.31387422550179</v>
+        <v>-15.35707966099503</v>
       </c>
       <c r="D25">
-        <v>-249.8932109343393</v>
+        <v>-250.4505206254266</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B26">
-        <v>278.447828971817</v>
+        <v>274.9456012164306</v>
       </c>
       <c r="C26">
-        <v>-32.10370607771191</v>
+        <v>-33.67222121058826</v>
       </c>
       <c r="D26">
-        <v>-246.3441228941051</v>
+        <v>-241.2733800058424</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B27">
-        <v>286.8889685789361</v>
+        <v>291.7278700352015</v>
       </c>
       <c r="C27">
-        <v>-69.37758744755412</v>
+        <v>-70.34109726263074</v>
       </c>
       <c r="D27">
-        <v>-217.511381131382</v>
+        <v>-221.3867727725707</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B28">
-        <v>315.8913407651286</v>
+        <v>316.8948587851494</v>
       </c>
       <c r="C28">
-        <v>-117.0238469903811</v>
+        <v>-115.3523417755369</v>
       </c>
       <c r="D28">
-        <v>-198.8674937747475</v>
+        <v>-201.5425170096125</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B29">
-        <v>341.4175698248034</v>
+        <v>336.4466483962408</v>
       </c>
       <c r="C29">
-        <v>-152.9262075036709</v>
+        <v>-150.1754123965362</v>
       </c>
       <c r="D29">
-        <v>-188.4913623211325</v>
+        <v>-186.2712359997047</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B30">
-        <v>342.93796320457</v>
+        <v>345.1230501652909</v>
       </c>
       <c r="C30">
-        <v>-163.4436826985941</v>
+        <v>-166.428977898285</v>
       </c>
       <c r="D30">
-        <v>-179.4942805059759</v>
+        <v>-178.694072267006</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002</v>
       </c>
       <c r="B31">
-        <v>349.552010975906</v>
+        <v>354.2869883207331</v>
       </c>
       <c r="C31">
-        <v>-174.7376083408589</v>
+        <v>-177.298252472366</v>
       </c>
       <c r="D31">
-        <v>-174.8144026350471</v>
+        <v>-176.9887358483671</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B32">
-        <v>340.9055263704461</v>
+        <v>344.9293745043339</v>
       </c>
       <c r="C32">
-        <v>-178.303843306093</v>
+        <v>-178.8161226700108</v>
       </c>
       <c r="D32">
-        <v>-162.601683064353</v>
+        <v>-166.1132518343231</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002133333333333334</v>
       </c>
       <c r="B33">
-        <v>338.0703662892911</v>
+        <v>335.7830402179773</v>
       </c>
       <c r="C33">
-        <v>-187.5055177042763</v>
+        <v>-185.8756080299383</v>
       </c>
       <c r="D33">
-        <v>-150.5648485850148</v>
+        <v>-149.907432188039</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002200000000000001</v>
       </c>
       <c r="B34">
-        <v>322.0946511019525</v>
+        <v>316.8258393598168</v>
       </c>
       <c r="C34">
-        <v>-201.6949016935414</v>
+        <v>-200.7176371758301</v>
       </c>
       <c r="D34">
-        <v>-120.3997494084112</v>
+        <v>-116.1082021839867</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002266666666666667</v>
       </c>
       <c r="B35">
-        <v>284.9488196816272</v>
+        <v>290.9995772722544</v>
       </c>
       <c r="C35">
-        <v>-216.6094765643275</v>
+        <v>-220.4000871768402</v>
       </c>
       <c r="D35">
-        <v>-68.33934311729973</v>
+        <v>-70.59949009541424</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B36">
-        <v>275.4103828502855</v>
+        <v>274.0312073174571</v>
       </c>
       <c r="C36">
-        <v>-243.3090018141894</v>
+        <v>-240.0188497143382</v>
       </c>
       <c r="D36">
-        <v>-32.10138103609609</v>
+        <v>-34.01235760311891</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002400000000000001</v>
       </c>
       <c r="B37">
-        <v>267.2432549275905</v>
+        <v>265.0901712919721</v>
       </c>
       <c r="C37">
-        <v>-251.3638878313601</v>
+        <v>-249.8236364826622</v>
       </c>
       <c r="D37">
-        <v>-15.8793670962304</v>
+        <v>-15.26653480930993</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002466666666666667</v>
       </c>
       <c r="B38">
-        <v>263.373042162961</v>
+        <v>266.9573786474518</v>
       </c>
       <c r="C38">
-        <v>-257.6762219259631</v>
+        <v>-262.8129044020998</v>
       </c>
       <c r="D38">
-        <v>-5.696820236997937</v>
+        <v>-4.144474245352043</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002533333333333334</v>
       </c>
       <c r="B39">
-        <v>259.1922418063178</v>
+        <v>262.9951426786097</v>
       </c>
       <c r="C39">
-        <v>-263.9915922753491</v>
+        <v>-267.0976855214268</v>
       </c>
       <c r="D39">
-        <v>4.799350469031339</v>
+        <v>4.102542842817144</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002600000000000001</v>
       </c>
       <c r="B40">
-        <v>249.7115081416819</v>
+        <v>250.0621803049872</v>
       </c>
       <c r="C40">
-        <v>-265.8909116707187</v>
+        <v>-265.282749451018</v>
       </c>
       <c r="D40">
-        <v>16.17940352903678</v>
+        <v>15.22056914603081</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B41">
-        <v>247.1165581832233</v>
+        <v>240.8755997917733</v>
       </c>
       <c r="C41">
-        <v>-279.6392367413956</v>
+        <v>-274.5070864763555</v>
       </c>
       <c r="D41">
-        <v>32.52267855817225</v>
+        <v>33.63148668458216</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.002733333333333334</v>
       </c>
       <c r="B42">
-        <v>217.6489010896792</v>
+        <v>221.0185995481263</v>
       </c>
       <c r="C42">
-        <v>-287.933514949939</v>
+        <v>-291.4078846785823</v>
       </c>
       <c r="D42">
-        <v>70.28461386025982</v>
+        <v>70.38928513045593</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002800000000000001</v>
       </c>
       <c r="B43">
-        <v>198.9280168540499</v>
+        <v>201.0988493565043</v>
       </c>
       <c r="C43">
-        <v>-316.3771600291439</v>
+        <v>-316.3168551139262</v>
       </c>
       <c r="D43">
-        <v>117.449143175094</v>
+        <v>115.2180057574219</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002866666666666668</v>
       </c>
       <c r="B44">
-        <v>188.3925019953298</v>
+        <v>186.1731394331157</v>
       </c>
       <c r="C44">
-        <v>-341.2334765180148</v>
+        <v>-336.2938924943588</v>
       </c>
       <c r="D44">
-        <v>152.8409745226851</v>
+        <v>150.1207530612432</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002933333333333334</v>
       </c>
       <c r="B45">
-        <v>178.6597137798862</v>
+        <v>178.952077823959</v>
       </c>
       <c r="C45">
-        <v>-341.1411859824201</v>
+        <v>-345.6396642093981</v>
       </c>
       <c r="D45">
-        <v>162.4814722025339</v>
+        <v>166.6875863854391</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B46">
-        <v>176.0016278944551</v>
+        <v>177.5060570560301</v>
       </c>
       <c r="C46">
-        <v>-351.7108420995379</v>
+        <v>-355.3749786558099</v>
       </c>
       <c r="D46">
-        <v>175.7092142050828</v>
+        <v>177.8689215997798</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003066666666666668</v>
       </c>
       <c r="B47">
-        <v>164.0794585073078</v>
+        <v>166.4636908453809</v>
       </c>
       <c r="C47">
-        <v>-343.9404018153061</v>
+        <v>-345.8470415685939</v>
       </c>
       <c r="D47">
-        <v>179.8609433079983</v>
+        <v>179.383350723213</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003133333333333334</v>
       </c>
       <c r="B48">
-        <v>150.5159937971142</v>
+        <v>150.1762898540423</v>
       </c>
       <c r="C48">
-        <v>-338.3907145922982</v>
+        <v>-336.5166906511022</v>
       </c>
       <c r="D48">
-        <v>187.874720795184</v>
+        <v>186.3404007970599</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003200000000000001</v>
       </c>
       <c r="B49">
-        <v>119.6807982431578</v>
+        <v>115.7917836853095</v>
       </c>
       <c r="C49">
-        <v>-320.8774850595645</v>
+        <v>-316.3564367944081</v>
       </c>
       <c r="D49">
-        <v>201.1966868164067</v>
+        <v>200.5646531090986</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.003266666666666668</v>
       </c>
       <c r="B50">
-        <v>67.42773233967721</v>
+        <v>70.38847801356695</v>
       </c>
       <c r="C50">
-        <v>-284.151212165649</v>
+        <v>-290.3594729256151</v>
       </c>
       <c r="D50">
-        <v>216.7234798259718</v>
+        <v>219.9709949120481</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B51">
-        <v>31.94740298834361</v>
+        <v>33.92794086108029</v>
       </c>
       <c r="C51">
-        <v>-275.1776025527589</v>
+        <v>-273.7063339708957</v>
       </c>
       <c r="D51">
-        <v>243.2301995644153</v>
+        <v>239.7783931098155</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.003400000000000001</v>
       </c>
       <c r="B52">
-        <v>16.12111387687825</v>
+        <v>15.17081354833195</v>
       </c>
       <c r="C52">
-        <v>-267.2184742568002</v>
+        <v>-264.5820115158121</v>
       </c>
       <c r="D52">
-        <v>251.097360379922</v>
+        <v>249.4111979674801</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.003466666666666668</v>
       </c>
       <c r="B53">
-        <v>6.020358269956745</v>
+        <v>4.193827015720046</v>
       </c>
       <c r="C53">
-        <v>-263.4208723530307</v>
+        <v>-266.8482335140384</v>
       </c>
       <c r="D53">
-        <v>257.400514083074</v>
+        <v>262.6544064983183</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.003533333333333335</v>
       </c>
       <c r="B54">
-        <v>-4.648608114889839</v>
+        <v>-3.982760787468038</v>
       </c>
       <c r="C54">
-        <v>-258.5676299441319</v>
+        <v>-262.919699108784</v>
       </c>
       <c r="D54">
-        <v>263.2162380590217</v>
+        <v>266.902459896252</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003600000000000001</v>
       </c>
       <c r="B55">
-        <v>-16.39934306920874</v>
+        <v>-15.14201159995599</v>
       </c>
       <c r="C55">
-        <v>-249.1904350879609</v>
+        <v>-250.3416752112195</v>
       </c>
       <c r="D55">
-        <v>265.5897781571696</v>
+        <v>265.4836868111755</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B56">
-        <v>-32.91828937695732</v>
+        <v>-33.67072863628381</v>
       </c>
       <c r="C56">
-        <v>-246.269547388787</v>
+        <v>-240.8038475509672</v>
       </c>
       <c r="D56">
-        <v>279.1878367657443</v>
+        <v>274.474576187251</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003733333333333335</v>
       </c>
       <c r="B57">
-        <v>-70.55178058132071</v>
+        <v>-70.44223234061938</v>
       </c>
       <c r="C57">
-        <v>-217.5724072232636</v>
+        <v>-220.6551935019919</v>
       </c>
       <c r="D57">
-        <v>288.1241878045843</v>
+        <v>291.0974258426113</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.003800000000000001</v>
       </c>
       <c r="B58">
-        <v>-116.8896514124242</v>
+        <v>-115.0410530223307</v>
       </c>
       <c r="C58">
-        <v>-198.568436740963</v>
+        <v>-200.8262846866163</v>
       </c>
       <c r="D58">
-        <v>315.4580881533873</v>
+        <v>315.867337708947</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003866666666666668</v>
       </c>
       <c r="B59">
-        <v>-152.3289843241369</v>
+        <v>-149.8202338189172</v>
       </c>
       <c r="C59">
-        <v>-187.7268949182468</v>
+        <v>-186.0826893954116</v>
       </c>
       <c r="D59">
-        <v>340.0558792423838</v>
+        <v>335.9029232143288</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003933333333333335</v>
       </c>
       <c r="B60">
-        <v>-162.9774076427011</v>
+        <v>-166.2140766502019</v>
       </c>
       <c r="C60">
-        <v>-178.7954899806519</v>
+        <v>-178.7508201991149</v>
       </c>
       <c r="D60">
-        <v>341.7728976233529</v>
+        <v>344.9648968493169</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B61">
-        <v>-174.8081315591317</v>
+        <v>-177.3736169548181</v>
       </c>
       <c r="C61">
-        <v>-175.4812899336792</v>
+        <v>-177.157392565216</v>
       </c>
       <c r="D61">
-        <v>350.2894214928109</v>
+        <v>354.531009520034</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.004066666666666667</v>
       </c>
       <c r="B62">
-        <v>-178.8026316756452</v>
+        <v>-178.8431960467489</v>
       </c>
       <c r="C62">
-        <v>-164.2169692645969</v>
+        <v>-166.3955981918663</v>
       </c>
       <c r="D62">
-        <v>343.0196009402422</v>
+        <v>345.2387942386151</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.004133333333333333</v>
       </c>
       <c r="B63">
-        <v>-187.8819678569043</v>
+        <v>-185.8234495354891</v>
       </c>
       <c r="C63">
-        <v>-151.153290049027</v>
+        <v>-150.2801506988878</v>
       </c>
       <c r="D63">
-        <v>339.0352579059314</v>
+        <v>336.1036002343769</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0042</v>
       </c>
       <c r="B64">
-        <v>-202.007255590475</v>
+        <v>-200.882985947535</v>
       </c>
       <c r="C64">
-        <v>-119.7722305566782</v>
+        <v>-116.2495285604172</v>
       </c>
       <c r="D64">
-        <v>321.7794861471532</v>
+        <v>317.1325145079521</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.004266666666666666</v>
       </c>
       <c r="B65">
-        <v>-217.4364638794435</v>
+        <v>-220.6911250694925</v>
       </c>
       <c r="C65">
-        <v>-68.13686427912663</v>
+        <v>-70.45037338734085</v>
       </c>
       <c r="D65">
-        <v>285.5733281585701</v>
+        <v>291.1414984568333</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B66">
-        <v>-244.1011023713076</v>
+        <v>-240.3114465335308</v>
       </c>
       <c r="C66">
-        <v>-32.56041062080703</v>
+        <v>-33.8451967828321</v>
       </c>
       <c r="D66">
-        <v>276.6615129921146</v>
+        <v>274.1566433163629</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.004399999999999999</v>
       </c>
       <c r="B67">
-        <v>-251.1329942442568</v>
+        <v>-249.700039870914</v>
       </c>
       <c r="C67">
-        <v>-16.43807266571706</v>
+        <v>-15.34009695564089</v>
       </c>
       <c r="D67">
-        <v>267.5710669099739</v>
+        <v>265.0401368265549</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.004466666666666665</v>
       </c>
       <c r="B68">
-        <v>-257.8993542383957</v>
+        <v>-262.732801474099</v>
       </c>
       <c r="C68">
-        <v>-5.482829199623254</v>
+        <v>-4.236455045620801</v>
       </c>
       <c r="D68">
-        <v>263.382183438019</v>
+        <v>266.9692565197198</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.004533333333333331</v>
       </c>
       <c r="B69">
-        <v>-264.4532913030174</v>
+        <v>-266.7280306768006</v>
       </c>
       <c r="C69">
-        <v>5.323060034043152</v>
+        <v>4.13106170945899</v>
       </c>
       <c r="D69">
-        <v>259.1302312689742</v>
+        <v>262.5969689673416</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.004599999999999997</v>
       </c>
       <c r="B70">
-        <v>-266.2151673435365</v>
+        <v>-265.8152804362</v>
       </c>
       <c r="C70">
-        <v>16.33267053675196</v>
+        <v>15.3757892013686</v>
       </c>
       <c r="D70">
-        <v>249.8824968067846</v>
+        <v>250.4394912348314</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.004666666666666664</v>
       </c>
       <c r="B71">
-        <v>-278.4669966620424</v>
+        <v>-274.9629228207302</v>
       </c>
       <c r="C71">
-        <v>32.13875276628296</v>
+        <v>33.71183547610512</v>
       </c>
       <c r="D71">
-        <v>246.3282438957595</v>
+        <v>241.2510873446251</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.00473333333333333</v>
       </c>
       <c r="B72">
-        <v>-286.9048853887189</v>
+        <v>-291.7590358378225</v>
       </c>
       <c r="C72">
-        <v>69.43883490326334</v>
+        <v>70.40179845758493</v>
       </c>
       <c r="D72">
-        <v>217.4660504854555</v>
+        <v>221.3572373802376</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004799999999999996</v>
       </c>
       <c r="B73">
-        <v>-315.9459136379296</v>
+        <v>-316.934214821138</v>
       </c>
       <c r="C73">
-        <v>117.0947091330449</v>
+        <v>115.4186698474793</v>
       </c>
       <c r="D73">
-        <v>198.8512045048847</v>
+        <v>201.5155449736587</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.004866666666666662</v>
       </c>
       <c r="B74">
-        <v>-341.42968549954</v>
+        <v>-336.4604665197373</v>
       </c>
       <c r="C74">
-        <v>152.9529275961616</v>
+        <v>150.2060113309528</v>
       </c>
       <c r="D74">
-        <v>188.4767579033783</v>
+        <v>186.2544551887845</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004933333333333329</v>
       </c>
       <c r="B75">
-        <v>-342.9443294546891</v>
+        <v>-345.1395562733559</v>
       </c>
       <c r="C75">
-        <v>163.4595652599382</v>
+        <v>166.4501615564629</v>
       </c>
       <c r="D75">
-        <v>179.4847641947509</v>
+        <v>178.689394716893</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.004999999999999995</v>
       </c>
       <c r="B76">
-        <v>-349.552649646335</v>
+        <v>-354.2881923244612</v>
       </c>
       <c r="C76">
-        <v>174.7486472584841</v>
+        <v>177.3055777919811</v>
       </c>
       <c r="D76">
-        <v>174.804002387851</v>
+        <v>176.9826145324801</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.005066666666666661</v>
       </c>
       <c r="B77">
-        <v>-340.892919222964</v>
+        <v>-344.9113882355998</v>
       </c>
       <c r="C77">
-        <v>178.3098633866302</v>
+        <v>178.8197739103778</v>
       </c>
       <c r="D77">
-        <v>162.5830558363338</v>
+        <v>166.0916143252219</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.005133333333333327</v>
       </c>
       <c r="B78">
-        <v>-338.0733888889898</v>
+        <v>-335.7700736531504</v>
       </c>
       <c r="C78">
-        <v>187.5260069694717</v>
+        <v>185.8919490080253</v>
       </c>
       <c r="D78">
-        <v>150.5473819195181</v>
+        <v>149.8781246451251</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.005199999999999994</v>
       </c>
       <c r="B79">
-        <v>-322.036505773607</v>
+        <v>-316.7852727302134</v>
       </c>
       <c r="C79">
-        <v>201.7130433459019</v>
+        <v>200.7437979854583</v>
       </c>
       <c r="D79">
-        <v>120.3234624277051</v>
+        <v>116.041474744755</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00526666666666666</v>
       </c>
       <c r="B80">
-        <v>-284.9186552472221</v>
+        <v>-290.9661150791859</v>
       </c>
       <c r="C80">
-        <v>216.6431117612319</v>
+        <v>220.4273721979441</v>
       </c>
       <c r="D80">
-        <v>68.27554348599016</v>
+        <v>70.53874288124177</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.005333333333333326</v>
       </c>
       <c r="B81">
-        <v>-275.4054497315707</v>
+        <v>-274.0152324665836</v>
       </c>
       <c r="C81">
-        <v>243.3424066343506</v>
+        <v>240.0432963519506</v>
       </c>
       <c r="D81">
-        <v>32.06304309722013</v>
+        <v>33.97193611463302</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.005399999999999992</v>
       </c>
       <c r="B82">
-        <v>-267.2265367941993</v>
+        <v>-265.0842370281811</v>
       </c>
       <c r="C82">
-        <v>251.3611349456747</v>
+        <v>249.8365217373818</v>
       </c>
       <c r="D82">
-        <v>15.86540184852457</v>
+        <v>15.24771529079933</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.005466666666666659</v>
       </c>
       <c r="B83">
-        <v>-263.3772486578158</v>
+        <v>-266.9637639271523</v>
       </c>
       <c r="C83">
-        <v>257.6940444583056</v>
+        <v>262.8319873360437</v>
       </c>
       <c r="D83">
-        <v>5.683204199510158</v>
+        <v>4.131776591108704</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.005533333333333325</v>
       </c>
       <c r="B84">
-        <v>-259.1753675806934</v>
+        <v>-262.9751427637524</v>
       </c>
       <c r="C84">
-        <v>263.9906054327874</v>
+        <v>267.0908852731105</v>
       </c>
       <c r="D84">
-        <v>-4.815237852093958</v>
+        <v>-4.115742509358171</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.005599999999999991</v>
       </c>
       <c r="B85">
-        <v>-249.7015531200514</v>
+        <v>-250.0491929739705</v>
       </c>
       <c r="C85">
-        <v>265.9006965766595</v>
+        <v>265.2881740998084</v>
       </c>
       <c r="D85">
-        <v>-16.19914345660811</v>
+        <v>-15.23898112583794</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.005666666666666658</v>
       </c>
       <c r="B86">
-        <v>-247.1003222573451</v>
+        <v>-240.8542342076851</v>
       </c>
       <c r="C86">
-        <v>279.6585332845193</v>
+        <v>274.5254307797819</v>
       </c>
       <c r="D86">
-        <v>-32.55821102717411</v>
+        <v>-33.67119657209685</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.005733333333333324</v>
       </c>
       <c r="B87">
-        <v>-217.6048371689451</v>
+        <v>-220.9893140938602</v>
       </c>
       <c r="C87">
-        <v>287.9518423019049</v>
+        <v>291.4399972590014</v>
       </c>
       <c r="D87">
-        <v>-70.34700513295978</v>
+        <v>-70.45068316514116</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.00579999999999999</v>
       </c>
       <c r="B88">
-        <v>-198.9108435041983</v>
+        <v>-201.072569356875</v>
       </c>
       <c r="C88">
-        <v>316.4296481100845</v>
+        <v>316.3563657738078</v>
       </c>
       <c r="D88">
-        <v>-117.5188046058862</v>
+        <v>-115.2837964169328</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.005866666666666656</v>
       </c>
       <c r="B89">
-        <v>-188.3766099446511</v>
+        <v>-186.1557404582662</v>
       </c>
       <c r="C89">
-        <v>341.24261205214</v>
+        <v>336.3065608814513</v>
       </c>
       <c r="D89">
-        <v>-152.866002107489</v>
+        <v>-150.1508204231851</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.005933333333333323</v>
       </c>
       <c r="B90">
-        <v>-178.6519999675022</v>
+        <v>-178.949314539241</v>
       </c>
       <c r="C90">
-        <v>341.1508889181758</v>
+        <v>345.6595739754851</v>
       </c>
       <c r="D90">
-        <v>-162.4988889506736</v>
+        <v>-166.7102594362441</v>
       </c>
     </row>
   </sheetData>
